--- a/attendance_report_2025-10-30.xlsx
+++ b/attendance_report_2025-10-30.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,8 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -500,6 +502,16 @@
           <t>2025-10-30 (L2)</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-30 (L3)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-30 (L4)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -520,6 +532,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -540,6 +562,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -560,6 +592,16 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -576,6 +618,16 @@
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
